--- a/medicine/Sexualité et sexologie/Sexe_Intentions_2/Sexe_Intentions_2.xlsx
+++ b/medicine/Sexualité et sexologie/Sexe_Intentions_2/Sexe_Intentions_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sexe Intentions 2, ou Sexual Provocation 2 en Belgique et Un Pari cruel 2 au Québec, (Cruel Intentions 2) est un film américain réalisé par Roger Kumble et sorti directement en vidéo en 2001.
 C'est le deuxième film d'une trilogie entamée en 1999 avec le film Sexe Intentions du même réalisateur et qui s'inspire du roman Les Liaisons dangereuses de l'écrivain français Choderlos de Laclos. Il s'agît d'un préquel du premier film, mettant en scène certains personnages de ce dernier plusieurs années avant les événements du film.
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sebastian Valmont est un jeune adolescent turbulent et rebelle. Il est transféré dans un établissement de renom, Manchester Prep, qui accueille les enfants de la haute bourgeoisie new-yorkaise. 
 Arrivé à New York, il emménage dans la maison de la nouvelle femme de son père, une demeure très luxueuse. Il fait également la connaissance de sa demi-sœur, Kathryn Merteuil. L'entente va être compliquée entre les deux adolescents, Kathryn étant habituée à son confort de vie et ne souhaitant pas être dérangée par un garçon venant d'un milieu comme celui de Sebastian.
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Cruel Intentions 2 (première édition) / Cruel Intentions 2: Manchester Prep (ré-édition)
@@ -602,7 +618,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Robin Dunne (VF : Alexandre Gillet) : Sebastian Valmont
@@ -651,12 +669,14 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Peu après la sortie du film Sexe Intentions en 1999, le réseau Fox commande au réalisateur Roger Kumble une première saison de 13 épisodes pour une série télévisée qui servirait de préquel au film dont le tournage débute peu de temps après l'annonce, à New York[1].
-Intitulée Manchester Prep, elle devait être diffusée à partir de septembre 1999. Mais après le tournage de trois épisodes, la chaîne annule la série avant même sa diffusion. Une scène avec le personnage de Cherie Claymon, interprété par Keri Lynn Pratt, ayant un orgasme sur un cheval aurait choqué le président de la chaîne, Rupert Murdoch[1].
-À la suite de cette annulation, le projet passe de la division télévisée à la division vidéo du studio Columbia Pictures qui décide de rassembler les trois épisodes pour en faire un film mais également de tourner des scènes supplémentaires pour donner une fin à l'histoire et y ajouter des scènes plus explicites, ce qui était impossible à la télévision[1].
-Le tournage des scènes supplémentaires a eu lieu durant l'été 2000 à New York[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu après la sortie du film Sexe Intentions en 1999, le réseau Fox commande au réalisateur Roger Kumble une première saison de 13 épisodes pour une série télévisée qui servirait de préquel au film dont le tournage débute peu de temps après l'annonce, à New York.
+Intitulée Manchester Prep, elle devait être diffusée à partir de septembre 1999. Mais après le tournage de trois épisodes, la chaîne annule la série avant même sa diffusion. Une scène avec le personnage de Cherie Claymon, interprété par Keri Lynn Pratt, ayant un orgasme sur un cheval aurait choqué le président de la chaîne, Rupert Murdoch.
+À la suite de cette annulation, le projet passe de la division télévisée à la division vidéo du studio Columbia Pictures qui décide de rassembler les trois épisodes pour en faire un film mais également de tourner des scènes supplémentaires pour donner une fin à l'histoire et y ajouter des scènes plus explicites, ce qui était impossible à la télévision.
+Le tournage des scènes supplémentaires a eu lieu durant l'été 2000 à New York.
 </t>
         </is>
       </c>
@@ -685,9 +705,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film reçoit des critiques généralement négatives. Sur le site agrégateur de critiques Rotten Tomatoes, il obtient un score de 17 % de critiques positives, avec une note moyenne de 3,5/10 sur la base de 12 critiques[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques généralement négatives. Sur le site agrégateur de critiques Rotten Tomatoes, il obtient un score de 17 % de critiques positives, avec une note moyenne de 3,5/10 sur la base de 12 critiques.
 </t>
         </is>
       </c>
